--- a/ValueSet-toc-del-loinc-answered-by-LL5571-6-vs.xlsx
+++ b/ValueSet-toc-del-loinc-answered-by-LL5571-6-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T12:06:42-04:00</t>
+    <t>2024-05-13T22:07:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
